--- a/java/DropWizard/meta-data/test-data/employee1.xlsx
+++ b/java/DropWizard/meta-data/test-data/employee1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Sumit\Sumit\study\workspace\cprogramming-2\java\DropWizard\meta-data\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36C4D8D-56B4-4641-8718-31B580A79D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA18E6A9-0B3D-428D-A9F3-0B5F8F885AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Mohan</t>
-  </si>
-  <si>
     <t>Sumit Kumar</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>Mohan Kumar</t>
   </si>
 </sst>
 </file>
@@ -308,7 +308,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -318,10 +318,10 @@
         <v>1001</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3">
         <v>45325</v>
@@ -332,10 +332,10 @@
         <v>1002</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
